--- a/tuned_random_forest_sampling_comparison.xlsx
+++ b/tuned_random_forest_sampling_comparison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +479,26 @@
           <t>PR-AUC</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Recall_Yes (%)</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Recall_Possibly (%)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Precision_Yes (%)</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Precision_Possibly (%)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -492,26 +512,36 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.7697000000000001</v>
+        <v>0.7566000000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5995</v>
+        <v>0.6083</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7644</v>
+        <v>0.7465000000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7697000000000001</v>
+        <v>0.7566000000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7604</v>
+        <v>0.7543</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9378</v>
+        <v>0.9282</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7836</v>
-      </c>
+        <v>0.7662</v>
+      </c>
+      <c r="J2" t="n">
+        <v>100</v>
+      </c>
+      <c r="K2" t="n">
+        <v>58.6</v>
+      </c>
+      <c r="L2" t="n">
+        <v>100</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -525,26 +555,36 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.7697000000000001</v>
+        <v>0.7566000000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5995</v>
+        <v>0.6083</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7644</v>
+        <v>0.7465000000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7697000000000001</v>
+        <v>0.7566000000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7604</v>
+        <v>0.7543</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9383</v>
+        <v>0.9288</v>
       </c>
       <c r="I3" t="n">
-        <v>0.784</v>
-      </c>
+        <v>0.7685999999999999</v>
+      </c>
+      <c r="J3" t="n">
+        <v>100</v>
+      </c>
+      <c r="K3" t="n">
+        <v>58.6</v>
+      </c>
+      <c r="L3" t="n">
+        <v>100</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -558,25 +598,37 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.7697000000000001</v>
+        <v>0.7632</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6021</v>
+        <v>0.6409</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7698</v>
+        <v>0.7586000000000001</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7697000000000001</v>
+        <v>0.7632</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7703</v>
+        <v>0.7573</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9335</v>
+        <v>0.9144</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7915</v>
+        <v>0.7441</v>
+      </c>
+      <c r="J4" t="n">
+        <v>100</v>
+      </c>
+      <c r="K4" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="L4" t="n">
+        <v>100</v>
+      </c>
+      <c r="M4" t="n">
+        <v>53.6</v>
       </c>
     </row>
     <row r="5">
@@ -591,26 +643,36 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.6513</v>
+        <v>0.6579</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5465</v>
+        <v>0.5621</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6639</v>
+        <v>0.6632</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6513</v>
+        <v>0.6579</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7645999999999999</v>
+        <v>0.7034</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9283</v>
+        <v>0.9125</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7792</v>
-      </c>
+        <v>0.7371</v>
+      </c>
+      <c r="J5" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="K5" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="L5" t="n">
+        <v>100</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -624,26 +686,36 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.7566000000000001</v>
+        <v>0.7039</v>
       </c>
       <c r="D6" t="n">
-        <v>0.62</v>
+        <v>0.5576</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7689</v>
+        <v>0.7045</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7566000000000001</v>
+        <v>0.7039</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7901</v>
+        <v>0.7050999999999999</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9353</v>
+        <v>0.9164</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7962</v>
-      </c>
+        <v>0.7429</v>
+      </c>
+      <c r="J6" t="n">
+        <v>100</v>
+      </c>
+      <c r="K6" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="L6" t="n">
+        <v>100</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
